--- a/Daisy-xls/ResearchPages/research-lymphoma.xlsx
+++ b/Daisy-xls/ResearchPages/research-lymphoma.xlsx
@@ -190,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -213,12 +213,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,6 +294,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -586,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -598,7 +616,7 @@
     <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -619,11 +637,13 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="21">
+        <v>488059</v>
+      </c>
       <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
@@ -636,11 +656,13 @@
       </c>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="21">
+        <v>836262</v>
+      </c>
       <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
@@ -654,11 +676,13 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="21">
+        <v>821434</v>
+      </c>
       <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
@@ -670,11 +694,13 @@
         <v>41884</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="21">
+        <v>660484</v>
+      </c>
       <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
@@ -686,11 +712,13 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="21">
+        <v>621732</v>
+      </c>
       <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
@@ -702,11 +730,13 @@
         <v>41512</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="21">
+        <v>546311</v>
+      </c>
       <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
@@ -718,11 +748,13 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="21">
+        <v>394938</v>
+      </c>
       <c r="C8" s="14" t="s">
         <v>23</v>
       </c>
@@ -734,11 +766,13 @@
         <v>41134</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="21">
+        <v>317032</v>
+      </c>
       <c r="C9" s="19" t="s">
         <v>5</v>
       </c>
@@ -752,11 +786,13 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="21">
+        <v>300956</v>
+      </c>
       <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
@@ -768,11 +804,13 @@
         <v>41045</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="21">
+        <v>258564</v>
+      </c>
       <c r="C11" s="14" t="s">
         <v>19</v>
       </c>
@@ -784,11 +822,13 @@
         <v>40999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="21">
+        <v>150218</v>
+      </c>
       <c r="C12" s="19" t="s">
         <v>4</v>
       </c>
@@ -802,11 +842,13 @@
         <v>40899</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="21">
+        <v>79035</v>
+      </c>
       <c r="C13" s="19" t="s">
         <v>3</v>
       </c>
@@ -820,11 +862,13 @@
         <v>40675</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="21">
+        <v>14036</v>
+      </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
@@ -838,11 +882,13 @@
         <v>40568</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="21">
+        <v>13953</v>
+      </c>
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
